--- a/pred_ohlcv/54_21/2020-01-13 RDN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 RDN ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>129827.9187827338</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>112183.1108827338</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -808,7 +808,7 @@
         <v>130390.8387827338</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -912,7 +912,7 @@
         <v>133736.2405827338</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>137635.4195827338</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>137635.4195827338</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>135952.0095827338</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>139097.2154827338</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>132279.4778827338</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>157675.0976827338</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>157675.0976827338</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>157675.0976827338</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>157675.0976827338</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>101927.8861827338</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>85673.29638273378</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>85673.29638273378</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>34597.44878273383</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>34597.44878273383</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>33883.82878273383</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>33883.82878273383</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>33883.82878273383</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>33883.82878273383</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>33883.82878273383</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>33883.82878273383</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>33883.82878273383</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>32456.23898273383</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>57102.38288273383</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>57927.20288273383</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>55205.22698273383</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>55672.17588273383</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>60610.27618273383</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>63995.54588273383</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-13 RDN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 RDN ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>129827.9187827338</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>112183.1108827338</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -782,7 +782,7 @@
         <v>159717.9737827338</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>130390.8387827338</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>129303.8947827338</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>139379.0513827338</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>139379.0513827338</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>139097.2154827338</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>132279.4778827338</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>157675.0976827338</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>157675.0976827338</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>33883.82878273383</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>33883.82878273383</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>33883.82878273383</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>32456.23898273383</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>57102.38288273383</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>57927.20288273383</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>55672.17588273383</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>57137.91958273383</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>78810.30038273384</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>82203.61838273384</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>82035.34528273383</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>82045.34528273383</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>60610.27618273383</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>64714.88998273383</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>64024.25188273383</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>64028.25188273383</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>63995.54588273383</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>63995.54588273383</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>46704.83348273383</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>55434.46778273383</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>55434.46778273383</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
